--- a/template/test.xlsx
+++ b/template/test.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
